--- a/Propeller Packages/APC_13x6/ClvsAlpha_RPM8000.xlsx
+++ b/Propeller Packages/APC_13x6/ClvsAlpha_RPM8000.xlsx
@@ -118,54 +118,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP27"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true"/>
-    <col min="3" max="3" width="3.85546875" customWidth="true"/>
-    <col min="4" max="4" width="7.42578125" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="7.42578125" customWidth="true"/>
-    <col min="7" max="7" width="3.85546875" customWidth="true"/>
-    <col min="8" max="8" width="7.42578125" customWidth="true"/>
-    <col min="9" max="9" width="3.85546875" customWidth="true"/>
-    <col min="10" max="10" width="7.42578125" customWidth="true"/>
-    <col min="11" max="11" width="3.85546875" customWidth="true"/>
-    <col min="12" max="12" width="7.42578125" customWidth="true"/>
-    <col min="13" max="13" width="3.85546875" customWidth="true"/>
-    <col min="14" max="14" width="7.42578125" customWidth="true"/>
-    <col min="15" max="15" width="3.85546875" customWidth="true"/>
-    <col min="16" max="16" width="7.42578125" customWidth="true"/>
-    <col min="17" max="17" width="3.85546875" customWidth="true"/>
-    <col min="18" max="18" width="7.42578125" customWidth="true"/>
-    <col min="19" max="19" width="3.85546875" customWidth="true"/>
-    <col min="20" max="20" width="7.42578125" customWidth="true"/>
-    <col min="21" max="21" width="3.85546875" customWidth="true"/>
-    <col min="22" max="22" width="7.42578125" customWidth="true"/>
-    <col min="23" max="23" width="3.85546875" customWidth="true"/>
-    <col min="24" max="24" width="7.42578125" customWidth="true"/>
-    <col min="25" max="25" width="3.85546875" customWidth="true"/>
-    <col min="26" max="26" width="7.42578125" customWidth="true"/>
-    <col min="27" max="27" width="3.85546875" customWidth="true"/>
-    <col min="28" max="28" width="7.42578125" customWidth="true"/>
-    <col min="29" max="29" width="3.85546875" customWidth="true"/>
-    <col min="30" max="30" width="7.42578125" customWidth="true"/>
-    <col min="31" max="31" width="3.85546875" customWidth="true"/>
-    <col min="32" max="32" width="7.42578125" customWidth="true"/>
-    <col min="33" max="33" width="3.85546875" customWidth="true"/>
-    <col min="34" max="34" width="7.42578125" customWidth="true"/>
-    <col min="35" max="35" width="3.85546875" customWidth="true"/>
-    <col min="36" max="36" width="7.42578125" customWidth="true"/>
-    <col min="37" max="37" width="3.85546875" customWidth="true"/>
-    <col min="38" max="38" width="7.42578125" customWidth="true"/>
-    <col min="39" max="39" width="3.85546875" customWidth="true"/>
-    <col min="40" max="40" width="7.42578125" customWidth="true"/>
-    <col min="41" max="41" width="3.85546875" customWidth="true"/>
-    <col min="42" max="42" width="7.42578125" customWidth="true"/>
+    <col min="1" max="1" width="3.6640625" customWidth="true"/>
+    <col min="2" max="2" width="7.21875" customWidth="true"/>
+    <col min="3" max="3" width="3.6640625" customWidth="true"/>
+    <col min="4" max="4" width="7.21875" customWidth="true"/>
+    <col min="5" max="5" width="3.6640625" customWidth="true"/>
+    <col min="6" max="6" width="7.21875" customWidth="true"/>
+    <col min="7" max="7" width="3.6640625" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" customWidth="true"/>
+    <col min="9" max="9" width="3.6640625" customWidth="true"/>
+    <col min="10" max="10" width="7.21875" customWidth="true"/>
+    <col min="11" max="11" width="3.6640625" customWidth="true"/>
+    <col min="12" max="12" width="7.21875" customWidth="true"/>
+    <col min="13" max="13" width="3.6640625" customWidth="true"/>
+    <col min="14" max="14" width="7.21875" customWidth="true"/>
+    <col min="15" max="15" width="3.6640625" customWidth="true"/>
+    <col min="16" max="16" width="7.21875" customWidth="true"/>
+    <col min="17" max="17" width="3.6640625" customWidth="true"/>
+    <col min="18" max="18" width="7.21875" customWidth="true"/>
+    <col min="19" max="19" width="3.6640625" customWidth="true"/>
+    <col min="20" max="20" width="7.21875" customWidth="true"/>
+    <col min="21" max="21" width="3.6640625" customWidth="true"/>
+    <col min="22" max="22" width="7.21875" customWidth="true"/>
+    <col min="23" max="23" width="3.6640625" customWidth="true"/>
+    <col min="24" max="24" width="7.21875" customWidth="true"/>
+    <col min="25" max="25" width="3.6640625" customWidth="true"/>
+    <col min="26" max="26" width="7.21875" customWidth="true"/>
+    <col min="27" max="27" width="3.6640625" customWidth="true"/>
+    <col min="28" max="28" width="7.21875" customWidth="true"/>
+    <col min="29" max="29" width="3.6640625" customWidth="true"/>
+    <col min="30" max="30" width="7.21875" customWidth="true"/>
+    <col min="31" max="31" width="3.6640625" customWidth="true"/>
+    <col min="32" max="32" width="7.21875" customWidth="true"/>
+    <col min="33" max="33" width="3.6640625" customWidth="true"/>
+    <col min="34" max="34" width="7.21875" customWidth="true"/>
+    <col min="35" max="35" width="3.6640625" customWidth="true"/>
+    <col min="36" max="36" width="7.21875" customWidth="true"/>
+    <col min="37" max="37" width="3.6640625" customWidth="true"/>
+    <col min="38" max="38" width="7.21875" customWidth="true"/>
+    <col min="39" max="39" width="3.6640625" customWidth="true"/>
+    <col min="40" max="40" width="7.21875" customWidth="true"/>
+    <col min="41" max="41" width="3.6640625" customWidth="true"/>
+    <col min="42" max="42" width="7.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -298,3090 +298,3992 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.22239999999999999</v>
+        <v>-0.1953</v>
       </c>
       <c r="C2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.33829999999999999</v>
+        <v>0.081799999999999998</v>
       </c>
       <c r="E2" s="0">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.2334</v>
+        <v>0.22650000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.0129</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="I2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="J2" s="0">
-        <v>0.00029999999999999997</v>
+        <v>0.086300000000000002</v>
       </c>
       <c r="K2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.046199999999999998</v>
+        <v>0.0030999999999999999</v>
       </c>
       <c r="M2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.042900000000000001</v>
+        <v>-0.098400000000000001</v>
       </c>
       <c r="O2" s="0">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="P2" s="0">
-        <v>-0.1368</v>
+        <v>-0.12189999999999999</v>
       </c>
       <c r="Q2" s="0">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="R2" s="0">
-        <v>-0.22259999999999999</v>
+        <v>-0.1991</v>
       </c>
       <c r="S2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="T2" s="0">
-        <v>-0.29830000000000001</v>
+        <v>-0.2752</v>
       </c>
       <c r="U2" s="0">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="V2" s="0">
-        <v>-0.34429999999999999</v>
+        <v>-0.27339999999999998</v>
       </c>
       <c r="W2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="X2" s="0">
-        <v>-0.32929999999999998</v>
+        <v>-0.29509999999999997</v>
       </c>
       <c r="Y2" s="0">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="Z2" s="0">
-        <v>-0.34839999999999999</v>
+        <v>-0.28239999999999999</v>
       </c>
       <c r="AA2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AB2" s="0">
-        <v>-0.30249999999999999</v>
+        <v>-0.31380000000000002</v>
       </c>
       <c r="AC2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AD2" s="0">
-        <v>-0.30309999999999998</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="AE2" s="0">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="AF2" s="0">
-        <v>-0.33660000000000001</v>
+        <v>-0.31219999999999998</v>
       </c>
       <c r="AG2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AH2" s="0">
-        <v>-0.26529999999999998</v>
+        <v>-0.35139999999999999</v>
       </c>
       <c r="AI2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AJ2" s="0">
-        <v>-0.28949999999999998</v>
+        <v>-0.35899999999999999</v>
       </c>
       <c r="AK2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AL2" s="0">
-        <v>-0.34839999999999999</v>
+        <v>-0.37680000000000002</v>
       </c>
       <c r="AM2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AN2" s="0">
-        <v>-0.32390000000000002</v>
+        <v>-0.39550000000000002</v>
       </c>
       <c r="AO2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AP2" s="0">
-        <v>-0.21540000000000001</v>
+        <v>-0.32950000000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.23710000000000001</v>
+        <v>-0.156</v>
       </c>
       <c r="C3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.40160000000000001</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.246</v>
+        <v>0.30940000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.033099999999999997</v>
+        <v>0.17349999999999999</v>
       </c>
       <c r="I3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.0067999999999999996</v>
+        <v>0.1181</v>
       </c>
       <c r="K3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="L3" s="0">
-        <v>0.0023</v>
+        <v>0.052200000000000003</v>
       </c>
       <c r="M3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="N3" s="0">
-        <v>0.0083000000000000001</v>
+        <v>-0.023400000000000001</v>
       </c>
       <c r="O3" s="0">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="P3" s="0">
-        <v>-0.088599999999999998</v>
+        <v>-0.092899999999999997</v>
       </c>
       <c r="Q3" s="0">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.1825</v>
+        <v>-0.18090000000000001</v>
       </c>
       <c r="S3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.26090000000000002</v>
+        <v>-0.2752</v>
       </c>
       <c r="U3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="V3" s="0">
-        <v>-0.25629999999999997</v>
+        <v>-0.2843</v>
       </c>
       <c r="W3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="X3" s="0">
-        <v>-0.30409999999999998</v>
+        <v>-0.28349999999999997</v>
       </c>
       <c r="Y3" s="0">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.2944</v>
+        <v>-0.3004</v>
       </c>
       <c r="AA3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AB3" s="0">
-        <v>-0.34429999999999999</v>
+        <v>-0.29570000000000002</v>
       </c>
       <c r="AC3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AD3" s="0">
-        <v>-0.33700000000000002</v>
+        <v>-0.31530000000000002</v>
       </c>
       <c r="AE3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.32700000000000001</v>
+        <v>-0.31519999999999998</v>
       </c>
       <c r="AG3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AH3" s="0">
-        <v>-0.28060000000000002</v>
+        <v>-0.32440000000000002</v>
       </c>
       <c r="AI3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AJ3" s="0">
-        <v>-0.32079999999999997</v>
+        <v>-0.35539999999999999</v>
       </c>
       <c r="AK3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AL3" s="0">
-        <v>-0.32569999999999999</v>
+        <v>-0.34939999999999999</v>
       </c>
       <c r="AM3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AN3" s="0">
-        <v>-0.31730000000000003</v>
+        <v>-0.3513</v>
       </c>
       <c r="AO3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AP3" s="0">
-        <v>-0.19520000000000001</v>
+        <v>-0.29699999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.22839999999999999</v>
+        <v>-0.12790000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.36570000000000003</v>
+        <v>0.1157</v>
       </c>
       <c r="E4" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.26629999999999998</v>
+        <v>0.32000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.11559999999999999</v>
+        <v>0.18579999999999999</v>
       </c>
       <c r="I4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.084199999999999997</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="K4" s="0">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="L4" s="0">
-        <v>0.0016000000000000001</v>
+        <v>0.073599999999999999</v>
       </c>
       <c r="M4" s="0">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="N4" s="0">
-        <v>0.027900000000000001</v>
+        <v>-0.0032000000000000002</v>
       </c>
       <c r="O4" s="0">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="P4" s="0">
-        <v>-0.0309</v>
+        <v>-0.082500000000000004</v>
       </c>
       <c r="Q4" s="0">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.12559999999999999</v>
+        <v>-0.17979999999999999</v>
       </c>
       <c r="S4" s="0">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.1608</v>
+        <v>-0.2616</v>
       </c>
       <c r="U4" s="0">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="V4" s="0">
-        <v>-0.19989999999999999</v>
+        <v>-0.2591</v>
       </c>
       <c r="W4" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.1358</v>
+        <v>-0.26960000000000001</v>
       </c>
       <c r="Y4" s="0">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.24160000000000001</v>
+        <v>-0.2707</v>
       </c>
       <c r="AA4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.29799999999999999</v>
+        <v>-0.2954</v>
       </c>
       <c r="AC4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AD4" s="0">
-        <v>-0.29170000000000001</v>
+        <v>-0.29430000000000001</v>
       </c>
       <c r="AE4" s="0">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.36470000000000002</v>
+        <v>-0.3024</v>
       </c>
       <c r="AG4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AH4" s="0">
-        <v>-0.37759999999999999</v>
+        <v>-0.30509999999999998</v>
       </c>
       <c r="AI4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AJ4" s="0">
-        <v>-0.37659999999999999</v>
+        <v>-0.3145</v>
       </c>
       <c r="AK4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AL4" s="0">
-        <v>-0.33950000000000002</v>
+        <v>-0.34179999999999999</v>
       </c>
       <c r="AM4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AN4" s="0">
-        <v>-0.32640000000000002</v>
+        <v>-0.35470000000000002</v>
       </c>
       <c r="AO4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AP4" s="0">
-        <v>-0.1799</v>
+        <v>-0.26669999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.23760000000000001</v>
+        <v>-0.1311</v>
       </c>
       <c r="C5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.37290000000000001</v>
+        <v>0.1115</v>
       </c>
       <c r="E5" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.28179999999999999</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="G5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.25219999999999998</v>
+        <v>0.19120000000000001</v>
       </c>
       <c r="I5" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.1842</v>
+        <v>0.14460000000000001</v>
       </c>
       <c r="K5" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.079500000000000001</v>
+        <v>0.087599999999999997</v>
       </c>
       <c r="M5" s="0">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="N5" s="0">
-        <v>0.038399999999999997</v>
+        <v>-0.011900000000000001</v>
       </c>
       <c r="O5" s="0">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="P5" s="0">
-        <v>-0.0097999999999999997</v>
+        <v>-0.3065</v>
       </c>
       <c r="Q5" s="0">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.1041</v>
+        <v>-0.34860000000000002</v>
       </c>
       <c r="S5" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.1144</v>
+        <v>-0.22370000000000001</v>
       </c>
       <c r="U5" s="0">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.15440000000000001</v>
+        <v>-0.23380000000000001</v>
       </c>
       <c r="W5" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.077399999999999997</v>
+        <v>-0.24129999999999999</v>
       </c>
       <c r="Y5" s="0">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.19839999999999999</v>
+        <v>-0.24690000000000001</v>
       </c>
       <c r="AA5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AB5" s="0">
-        <v>-0.25169999999999998</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="AC5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AD5" s="0">
-        <v>-0.24310000000000001</v>
+        <v>-0.29780000000000001</v>
       </c>
       <c r="AE5" s="0">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.31309999999999999</v>
+        <v>-0.31490000000000001</v>
       </c>
       <c r="AG5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AH5" s="0">
-        <v>-0.33760000000000001</v>
+        <v>-0.30709999999999999</v>
       </c>
       <c r="AI5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.4037</v>
+        <v>-0.32629999999999998</v>
       </c>
       <c r="AK5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AL5" s="0">
-        <v>-0.4239</v>
+        <v>-0.3155</v>
       </c>
       <c r="AM5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AN5" s="0">
-        <v>-0.37590000000000001</v>
+        <v>-0.31769999999999998</v>
       </c>
       <c r="AO5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AP5" s="0">
-        <v>-0.17030000000000001</v>
+        <v>-0.2392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.22</v>
+        <v>-0.11310000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.39589999999999997</v>
+        <v>0.1104</v>
       </c>
       <c r="E6" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.36320000000000002</v>
+        <v>-0.058700000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.26600000000000001</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="I6" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.29249999999999998</v>
+        <v>0.1401</v>
       </c>
       <c r="K6" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.25869999999999999</v>
+        <v>0.049099999999999998</v>
       </c>
       <c r="M6" s="0">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.035400000000000001</v>
+        <v>-0.25740000000000002</v>
       </c>
       <c r="O6" s="0">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="P6" s="0">
-        <v>-0.050099999999999999</v>
+        <v>-0.26240000000000002</v>
       </c>
       <c r="Q6" s="0">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.16880000000000001</v>
+        <v>-0.30080000000000001</v>
       </c>
       <c r="S6" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.044999999999999998</v>
+        <v>-0.19850000000000001</v>
       </c>
       <c r="U6" s="0">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="V6" s="0">
-        <v>-0.1235</v>
+        <v>-0.31</v>
       </c>
       <c r="W6" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="X6" s="0">
-        <v>0.0155</v>
+        <v>-0.23169999999999999</v>
       </c>
       <c r="Y6" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.1295</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="AA6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AB6" s="0">
-        <v>-0.15820000000000001</v>
+        <v>-0.27460000000000001</v>
       </c>
       <c r="AC6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AD6" s="0">
-        <v>-0.20979999999999999</v>
+        <v>-0.28970000000000001</v>
       </c>
       <c r="AE6" s="0">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.2301</v>
+        <v>-0.28410000000000002</v>
       </c>
       <c r="AG6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AH6" s="0">
-        <v>-0.30099999999999999</v>
+        <v>-0.33629999999999999</v>
       </c>
       <c r="AI6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.2477</v>
+        <v>-0.32219999999999999</v>
       </c>
       <c r="AK6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AL6" s="0">
-        <v>-0.44600000000000001</v>
+        <v>-0.3352</v>
       </c>
       <c r="AM6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AN6" s="0">
-        <v>-0.44369999999999998</v>
+        <v>-0.31890000000000002</v>
       </c>
       <c r="AO6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AP6" s="0">
-        <v>-0.1671</v>
+        <v>-0.2152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0521</v>
+        <v>-0.1517</v>
       </c>
       <c r="C7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.38490000000000002</v>
+        <v>0.085500000000000007</v>
       </c>
       <c r="E7" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.37430000000000002</v>
+        <v>-0.26619999999999999</v>
       </c>
       <c r="G7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.31380000000000002</v>
+        <v>-0.14680000000000001</v>
       </c>
       <c r="I7" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.34720000000000001</v>
+        <v>-0.15770000000000001</v>
       </c>
       <c r="K7" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.37</v>
+        <v>-0.21440000000000001</v>
       </c>
       <c r="M7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.18890000000000001</v>
+        <v>-0.22409999999999999</v>
       </c>
       <c r="O7" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="P7" s="0">
-        <v>-0.0521</v>
+        <v>-0.17849999999999999</v>
       </c>
       <c r="Q7" s="0">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.1328</v>
+        <v>-0.21240000000000001</v>
       </c>
       <c r="S7" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="T7" s="0">
-        <v>0.012500000000000001</v>
+        <v>-0.32990000000000003</v>
       </c>
       <c r="U7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="V7" s="0">
-        <v>-0.1042</v>
+        <v>-0.33910000000000001</v>
       </c>
       <c r="W7" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="X7" s="0">
-        <v>0.13220000000000001</v>
+        <v>-0.33739999999999998</v>
       </c>
       <c r="Y7" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.00029999999999999997</v>
+        <v>-0.27329999999999999</v>
       </c>
       <c r="AA7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.0969</v>
+        <v>-0.25369999999999998</v>
       </c>
       <c r="AC7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.1462</v>
+        <v>-0.26190000000000002</v>
       </c>
       <c r="AE7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.16</v>
+        <v>-0.29310000000000003</v>
       </c>
       <c r="AG7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AH7" s="0">
-        <v>-0.23000000000000001</v>
+        <v>-0.32769999999999999</v>
       </c>
       <c r="AI7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.2281</v>
+        <v>-0.34870000000000001</v>
       </c>
       <c r="AK7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AL7" s="0">
-        <v>-0.36570000000000003</v>
+        <v>-0.35630000000000001</v>
       </c>
       <c r="AM7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AN7" s="0">
-        <v>-0.49020000000000002</v>
+        <v>-0.3493</v>
       </c>
       <c r="AO7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AP7" s="0">
-        <v>-0.1699</v>
+        <v>-0.1953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.057200000000000001</v>
+        <v>-0.1789</v>
       </c>
       <c r="C8" s="0">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.27329999999999999</v>
+        <v>0.038399999999999997</v>
       </c>
       <c r="E8" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.35039999999999999</v>
+        <v>-0.3382</v>
       </c>
       <c r="G8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.38080000000000003</v>
+        <v>-0.16750000000000001</v>
       </c>
       <c r="I8" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.34560000000000002</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="K8" s="0">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.024199999999999999</v>
+        <v>-0.18429999999999999</v>
       </c>
       <c r="M8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.14000000000000001</v>
+        <v>-0.1426</v>
       </c>
       <c r="O8" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="P8" s="0">
-        <v>0.089300000000000004</v>
+        <v>-0.080399999999999999</v>
       </c>
       <c r="Q8" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="R8" s="0">
-        <v>0.13239999999999999</v>
+        <v>-0.11609999999999999</v>
       </c>
       <c r="S8" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="T8" s="0">
-        <v>0.14829999999999999</v>
+        <v>-0.3236</v>
       </c>
       <c r="U8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="V8" s="0">
-        <v>0.0064999999999999997</v>
+        <v>-0.25890000000000002</v>
       </c>
       <c r="W8" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="X8" s="0">
-        <v>0.26069999999999999</v>
+        <v>-0.26929999999999998</v>
       </c>
       <c r="Y8" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.13600000000000001</v>
+        <v>-0.18010000000000001</v>
       </c>
       <c r="AA8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.021700000000000001</v>
+        <v>-0.34089999999999998</v>
       </c>
       <c r="AC8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.027799999999999998</v>
+        <v>-0.30890000000000001</v>
       </c>
       <c r="AE8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.078899999999999998</v>
+        <v>-0.30130000000000001</v>
       </c>
       <c r="AG8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AH8" s="0">
-        <v>-0.11559999999999999</v>
+        <v>-0.34100000000000003</v>
       </c>
       <c r="AI8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AJ8" s="0">
-        <v>-0.1736</v>
+        <v>-0.32729999999999998</v>
       </c>
       <c r="AK8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.27679999999999999</v>
+        <v>-0.36609999999999998</v>
       </c>
       <c r="AM8" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AN8" s="0">
-        <v>-0.24640000000000001</v>
+        <v>-0.3705</v>
       </c>
       <c r="AO8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AP8" s="0">
-        <v>-0.1719</v>
+        <v>-0.1802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.064100000000000004</v>
+        <v>-0.2185</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D9" s="0">
-        <v>0.025999999999999999</v>
+        <v>-0.3186</v>
       </c>
       <c r="E9" s="0">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.24759999999999999</v>
+        <v>-0.34799999999999998</v>
       </c>
       <c r="G9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.37759999999999999</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="I9" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.20130000000000001</v>
+        <v>-0.1326</v>
       </c>
       <c r="K9" s="0">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="L9" s="0">
-        <v>0.0746</v>
+        <v>-0.1215</v>
       </c>
       <c r="M9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.0025000000000000001</v>
+        <v>-0.051200000000000002</v>
       </c>
       <c r="O9" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="P9" s="0">
-        <v>0.24790000000000001</v>
+        <v>0.0154</v>
       </c>
       <c r="Q9" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="R9" s="0">
-        <v>0.27389999999999998</v>
+        <v>-0.014800000000000001</v>
       </c>
       <c r="S9" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="T9" s="0">
-        <v>0.2606</v>
+        <v>-0.24010000000000001</v>
       </c>
       <c r="U9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="V9" s="0">
-        <v>0.1361</v>
+        <v>-0.15890000000000001</v>
       </c>
       <c r="W9" s="0">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="X9" s="0">
-        <v>0.36370000000000002</v>
+        <v>-0.1681</v>
       </c>
       <c r="Y9" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.25019999999999998</v>
+        <v>-0.073499999999999996</v>
       </c>
       <c r="AA9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.1186</v>
+        <v>-0.28549999999999998</v>
       </c>
       <c r="AC9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.091800000000000007</v>
+        <v>-0.29509999999999997</v>
       </c>
       <c r="AE9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.074899999999999994</v>
+        <v>-0.216</v>
       </c>
       <c r="AG9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.0138</v>
+        <v>-0.314</v>
       </c>
       <c r="AI9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AJ9" s="0">
-        <v>-0.046100000000000002</v>
+        <v>-0.33279999999999999</v>
       </c>
       <c r="AK9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AL9" s="0">
-        <v>-0.092999999999999999</v>
+        <v>-0.3533</v>
       </c>
       <c r="AM9" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AN9" s="0">
-        <v>-0.081900000000000001</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="AO9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AP9" s="0">
-        <v>-0.15909999999999999</v>
+        <v>-0.17080000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.096600000000000005</v>
+        <v>-0.31159999999999999</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.2084</v>
+        <v>-0.41660000000000003</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.1739</v>
+        <v>-0.33210000000000001</v>
       </c>
       <c r="G10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.29199999999999998</v>
+        <v>-0.098199999999999996</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J10" s="0">
-        <v>0.1023</v>
+        <v>0.1227</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="L10" s="0">
-        <v>0.20430000000000001</v>
+        <v>-0.044299999999999999</v>
       </c>
       <c r="M10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="N10" s="0">
-        <v>0.15090000000000001</v>
+        <v>0.044999999999999998</v>
       </c>
       <c r="O10" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P10" s="0">
-        <v>0.37909999999999999</v>
+        <v>0.1154</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="R10" s="0">
-        <v>0.3755</v>
+        <v>0.091300000000000006</v>
       </c>
       <c r="S10" s="0">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="T10" s="0">
-        <v>0.38159999999999999</v>
+        <v>-0.1426</v>
       </c>
       <c r="U10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="V10" s="0">
-        <v>0.25950000000000001</v>
+        <v>-0.054399999999999997</v>
       </c>
       <c r="W10" s="0">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X10" s="0">
-        <v>0.57489999999999997</v>
+        <v>-0.064199999999999993</v>
       </c>
       <c r="Y10" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.35549999999999998</v>
+        <v>0.035999999999999997</v>
       </c>
       <c r="AA10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.2366</v>
+        <v>-0.19109999999999999</v>
       </c>
       <c r="AC10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.22220000000000001</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="AE10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.20399999999999999</v>
+        <v>-0.1065</v>
       </c>
       <c r="AG10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.1825</v>
+        <v>-0.2306</v>
       </c>
       <c r="AI10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.1045</v>
+        <v>-0.249</v>
       </c>
       <c r="AK10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.053800000000000001</v>
+        <v>-0.2722</v>
       </c>
       <c r="AM10" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.090999999999999998</v>
+        <v>-0.21840000000000001</v>
       </c>
       <c r="AO10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AP10" s="0">
-        <v>-0.12479999999999999</v>
+        <v>-0.16789999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.40079999999999999</v>
+        <v>-0.4002</v>
       </c>
       <c r="C11" s="0">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.11509999999999999</v>
+        <v>-0.39589999999999998</v>
       </c>
       <c r="E11" s="0">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.082000000000000003</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="G11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.12509999999999999</v>
+        <v>-0.043299999999999998</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J11" s="0">
-        <v>0.2291</v>
+        <v>0.2044</v>
       </c>
       <c r="K11" s="0">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="L11" s="0">
-        <v>0.4415</v>
+        <v>0.039199999999999999</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N11" s="0">
-        <v>0.41789999999999999</v>
+        <v>0.1439</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="P11" s="0">
-        <v>0.7036</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="Q11" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R11" s="0">
-        <v>0.55789999999999995</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="S11" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="T11" s="0">
-        <v>0.59199999999999997</v>
+        <v>0.067500000000000004</v>
       </c>
       <c r="U11" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="V11" s="0">
-        <v>0.36909999999999998</v>
+        <v>0.053400000000000003</v>
       </c>
       <c r="W11" s="0">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="X11" s="0">
-        <v>0.66859999999999997</v>
+        <v>0.045699999999999998</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.5665</v>
+        <v>0.1452</v>
       </c>
       <c r="AA11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.34499999999999997</v>
+        <v>-0.082900000000000001</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.33860000000000001</v>
+        <v>-0.095799999999999996</v>
       </c>
       <c r="AE11" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.31490000000000001</v>
+        <v>0.0030000000000000001</v>
       </c>
       <c r="AG11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.29520000000000002</v>
+        <v>-0.12230000000000001</v>
       </c>
       <c r="AI11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.23330000000000001</v>
+        <v>-0.14230000000000001</v>
       </c>
       <c r="AK11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.2019</v>
+        <v>-0.16830000000000001</v>
       </c>
       <c r="AM11" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.25119999999999998</v>
+        <v>-0.0901</v>
       </c>
       <c r="AO11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AP11" s="0">
-        <v>-0.075600000000000001</v>
+        <v>-0.17080000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.57169999999999999</v>
+        <v>-0.433</v>
       </c>
       <c r="C12" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.058500000000000003</v>
+        <v>-0.36430000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0135</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="G12" s="0">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="H12" s="0">
-        <v>0.18140000000000001</v>
+        <v>0.021600000000000001</v>
       </c>
       <c r="I12" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J12" s="0">
-        <v>0.3301</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="K12" s="0">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="L12" s="0">
-        <v>0.91439999999999999</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N12" s="0">
-        <v>0.61550000000000005</v>
+        <v>0.244</v>
       </c>
       <c r="O12" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P12" s="0">
-        <v>0.79220000000000002</v>
+        <v>0.32279999999999998</v>
       </c>
       <c r="Q12" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R12" s="0">
-        <v>0.69889999999999997</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="S12" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="T12" s="0">
-        <v>0.68479999999999996</v>
+        <v>0.1769</v>
       </c>
       <c r="U12" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V12" s="0">
-        <v>0.58199999999999996</v>
+        <v>0.1618</v>
       </c>
       <c r="W12" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="X12" s="0">
-        <v>0.76490000000000002</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="Y12" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.66159999999999997</v>
+        <v>0.25509999999999999</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.55689999999999995</v>
+        <v>0.0253</v>
       </c>
       <c r="AC12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.54800000000000004</v>
+        <v>0.016199999999999999</v>
       </c>
       <c r="AE12" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.52390000000000003</v>
+        <v>0.1153</v>
       </c>
       <c r="AG12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.50229999999999997</v>
+        <v>-0.0086999999999999994</v>
       </c>
       <c r="AI12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0.46089999999999998</v>
+        <v>-0.024299999999999999</v>
       </c>
       <c r="AK12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.41239999999999999</v>
+        <v>-0.049200000000000001</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AN12" s="0">
-        <v>0.3967</v>
+        <v>0.0263</v>
       </c>
       <c r="AO12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AP12" s="0">
-        <v>-0.019</v>
+        <v>-0.1724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.50070000000000003</v>
+        <v>-0.42280000000000001</v>
       </c>
       <c r="C13" s="0">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D13" s="0">
-        <v>0.010200000000000001</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="E13" s="0">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F13" s="0">
-        <v>0.069599999999999995</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="G13" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H13" s="0">
-        <v>0.2051</v>
+        <v>0.095299999999999996</v>
       </c>
       <c r="I13" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0.38340000000000002</v>
+        <v>0.43480000000000002</v>
       </c>
       <c r="K13" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="L13" s="0">
-        <v>0.83579999999999999</v>
+        <v>0.22009999999999999</v>
       </c>
       <c r="M13" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N13" s="0">
-        <v>0.71109999999999995</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="O13" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P13" s="0">
-        <v>0.89490000000000003</v>
+        <v>0.4284</v>
       </c>
       <c r="Q13" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R13" s="0">
-        <v>0.79159999999999997</v>
+        <v>0.40660000000000002</v>
       </c>
       <c r="S13" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T13" s="0">
-        <v>0.78149999999999997</v>
+        <v>0.28310000000000002</v>
       </c>
       <c r="U13" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V13" s="0">
-        <v>0.67400000000000004</v>
+        <v>0.26960000000000001</v>
       </c>
       <c r="W13" s="0">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="X13" s="0">
-        <v>0.8579</v>
+        <v>0.2626</v>
       </c>
       <c r="Y13" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.75800000000000001</v>
+        <v>0.3634</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.65229999999999999</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="AC13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.64119999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.62809999999999999</v>
+        <v>0.2263</v>
       </c>
       <c r="AG13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.60560000000000003</v>
+        <v>0.1022</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.55249999999999999</v>
+        <v>0.0872</v>
       </c>
       <c r="AK13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.52729999999999999</v>
+        <v>0.067400000000000002</v>
       </c>
       <c r="AM13" s="0">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AN13" s="0">
-        <v>0.70489999999999997</v>
+        <v>0.1431</v>
       </c>
       <c r="AO13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AP13" s="0">
-        <v>0.041000000000000002</v>
+        <v>-0.15870000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.38200000000000001</v>
+        <v>-0.38740000000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.086999999999999994</v>
+        <v>-0.26469999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.12</v>
+        <v>-0.15240000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="0">
-        <v>0.067299999999999999</v>
+        <v>0.19309999999999999</v>
       </c>
       <c r="I14" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0">
-        <v>0.38950000000000001</v>
+        <v>0.5313</v>
       </c>
       <c r="K14" s="0">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="L14" s="0">
-        <v>0.52549999999999997</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="M14" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="0">
-        <v>0.84009999999999996</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="O14" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.98440000000000005</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Q14" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0.89259999999999995</v>
+        <v>0.50670000000000004</v>
       </c>
       <c r="S14" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T14" s="0">
-        <v>0.871</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="U14" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V14" s="0">
-        <v>0.77349999999999997</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="W14" s="0">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X14" s="0">
-        <v>0.94820000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="Y14" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.85209999999999997</v>
+        <v>0.46679999999999999</v>
       </c>
       <c r="AA14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.75139999999999996</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="AC14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.74460000000000004</v>
+        <v>0.23880000000000001</v>
       </c>
       <c r="AE14" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.72889999999999999</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="AG14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.71599999999999997</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="AI14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.66110000000000002</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="AK14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AL14" s="0">
-        <v>0.65390000000000004</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="AM14" s="0">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AN14" s="0">
-        <v>0.83340000000000003</v>
+        <v>0.2581</v>
       </c>
       <c r="AO14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.1017</v>
+        <v>-0.1236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.26179999999999998</v>
+        <v>-0.31590000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0.1507</v>
+        <v>-0.1999</v>
       </c>
       <c r="E15" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0.16569999999999999</v>
+        <v>-0.099400000000000002</v>
       </c>
       <c r="G15" s="0">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="0">
-        <v>0.11169999999999999</v>
+        <v>0.29480000000000001</v>
       </c>
       <c r="I15" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="0">
-        <v>0.36559999999999998</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="K15" s="0">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="0">
-        <v>0.57310000000000005</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="M15" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.96130000000000004</v>
+        <v>0.53290000000000004</v>
       </c>
       <c r="O15" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="0">
-        <v>1.0773999999999999</v>
+        <v>0.6351</v>
       </c>
       <c r="Q15" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15" s="0">
-        <v>0.97729999999999995</v>
+        <v>0.63519999999999999</v>
       </c>
       <c r="S15" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>0.96430000000000005</v>
+        <v>0.48959999999999998</v>
       </c>
       <c r="U15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>0.86439999999999995</v>
+        <v>0.47839999999999999</v>
       </c>
       <c r="W15" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>1.0367999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="Y15" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.94289999999999996</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="AA15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.84689999999999999</v>
+        <v>0.45960000000000001</v>
       </c>
       <c r="AC15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.84089999999999998</v>
+        <v>0.34610000000000002</v>
       </c>
       <c r="AE15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.83030000000000004</v>
+        <v>0.4365</v>
       </c>
       <c r="AG15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.81759999999999999</v>
+        <v>0.32290000000000002</v>
       </c>
       <c r="AI15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.7732</v>
+        <v>0.30790000000000001</v>
       </c>
       <c r="AK15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AL15" s="0">
-        <v>0.78259999999999996</v>
+        <v>0.29070000000000001</v>
       </c>
       <c r="AM15" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.95499999999999996</v>
+        <v>0.42870000000000003</v>
       </c>
       <c r="AO15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AP15" s="0">
-        <v>0.16170000000000001</v>
+        <v>-0.074099999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.1608</v>
+        <v>-0.25330000000000003</v>
       </c>
       <c r="C16" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0">
-        <v>0.318</v>
+        <v>-0.1135</v>
       </c>
       <c r="E16" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0">
-        <v>0.21010000000000001</v>
+        <v>0.065199999999999994</v>
       </c>
       <c r="G16" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0">
-        <v>0.15459999999999999</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="I16" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0">
-        <v>0.46389999999999998</v>
+        <v>0.68540000000000001</v>
       </c>
       <c r="K16" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0.62180000000000002</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="M16" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" s="0">
-        <v>1.0699000000000001</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="O16" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P16" s="0">
-        <v>1.165</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="Q16" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R16" s="0">
-        <v>1.0632999999999999</v>
+        <v>0.76390000000000002</v>
       </c>
       <c r="S16" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" s="0">
-        <v>1.0488</v>
+        <v>0.62890000000000001</v>
       </c>
       <c r="U16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" s="0">
-        <v>0.95089999999999997</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="W16" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X16" s="0">
-        <v>1.135</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="Y16" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="0">
-        <v>1.0367</v>
+        <v>0.72840000000000005</v>
       </c>
       <c r="AA16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="0">
-        <v>0.93989999999999996</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="AC16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.93710000000000004</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="AE16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.92759999999999998</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="AG16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.91930000000000001</v>
+        <v>0.42520000000000002</v>
       </c>
       <c r="AI16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.87180000000000002</v>
+        <v>0.4365</v>
       </c>
       <c r="AK16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.8891</v>
+        <v>0.45610000000000001</v>
       </c>
       <c r="AM16" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="0">
-        <v>1.0545</v>
+        <v>0.53029999999999999</v>
       </c>
       <c r="AO16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0.22020000000000001</v>
+        <v>-0.017399999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0032000000000000002</v>
+        <v>-0.18079999999999999</v>
       </c>
       <c r="C17" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D17" s="0">
-        <v>0.36990000000000001</v>
+        <v>-0.036600000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0">
-        <v>0.25729999999999997</v>
+        <v>0.44669999999999999</v>
       </c>
       <c r="G17" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="0">
-        <v>0.19689999999999999</v>
+        <v>0.60670000000000002</v>
       </c>
       <c r="I17" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J17" s="0">
-        <v>0.50719999999999998</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="K17" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L17" s="0">
-        <v>0.67169999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="M17" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0">
-        <v>1.1462000000000001</v>
+        <v>0.76580000000000004</v>
       </c>
       <c r="O17" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P17" s="0">
-        <v>1.2534000000000001</v>
+        <v>0.8438</v>
       </c>
       <c r="Q17" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R17" s="0">
-        <v>1.1523000000000001</v>
+        <v>0.83950000000000002</v>
       </c>
       <c r="S17" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T17" s="0">
-        <v>1.1420999999999999</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="U17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" s="0">
-        <v>1.0412999999999999</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="W17" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X17" s="0">
-        <v>1.232</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="Y17" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="0">
-        <v>1.1313</v>
+        <v>0.8155</v>
       </c>
       <c r="AA17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="0">
-        <v>1.0337000000000001</v>
+        <v>0.7228</v>
       </c>
       <c r="AC17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="0">
-        <v>1.0319</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="AE17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="0">
-        <v>1.026</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="AG17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="0">
-        <v>1.0201</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="AI17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.97219999999999995</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="AK17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.99609999999999999</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="AM17" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN17" s="0">
-        <v>1.1458999999999999</v>
+        <v>0.63280000000000003</v>
       </c>
       <c r="AO17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="0">
-        <v>0.27650000000000002</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0">
-        <v>0.060199999999999997</v>
+        <v>-0.10249999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D18" s="0">
-        <v>0.4214</v>
+        <v>0.048599999999999997</v>
       </c>
       <c r="E18" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="0">
-        <v>0.30259999999999998</v>
+        <v>0.47020000000000001</v>
       </c>
       <c r="G18" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0">
-        <v>0.2306</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="I18" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J18" s="0">
-        <v>0.55259999999999998</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="K18" s="0">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L18" s="0">
-        <v>0.72350000000000003</v>
+        <v>0.7056</v>
       </c>
       <c r="M18" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N18" s="0">
-        <v>1.2554000000000001</v>
+        <v>0.82150000000000001</v>
       </c>
       <c r="O18" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P18" s="0">
-        <v>1.3492999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="Q18" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R18" s="0">
-        <v>1.2536</v>
+        <v>0.91479999999999995</v>
       </c>
       <c r="S18" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T18" s="0">
-        <v>1.2365999999999999</v>
+        <v>0.82989999999999997</v>
       </c>
       <c r="U18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V18" s="0">
-        <v>1.1342000000000001</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="W18" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X18" s="0">
-        <v>1.3205</v>
+        <v>0.81889999999999996</v>
       </c>
       <c r="Y18" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="0">
-        <v>1.2294</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="AA18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="0">
-        <v>1.1318999999999999</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="AC18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="0">
-        <v>1.1338999999999999</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="AE18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="0">
-        <v>1.1273</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="AG18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="0">
-        <v>1.119</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="AI18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="0">
-        <v>1.0657000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="AK18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="0">
-        <v>1.0979000000000001</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="AM18" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="0">
-        <v>1.2386999999999999</v>
+        <v>0.73280000000000001</v>
       </c>
       <c r="AO18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP18" s="0">
-        <v>0.33069999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0">
-        <v>0.14130000000000001</v>
+        <v>0.061699999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0">
-        <v>0.47199999999999998</v>
+        <v>0.25650000000000001</v>
       </c>
       <c r="E19" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" s="0">
-        <v>0.34989999999999999</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="G19" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H19" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.7934</v>
       </c>
       <c r="I19" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J19" s="0">
-        <v>0.59960000000000002</v>
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="K19" s="0">
+        <v>3</v>
+      </c>
+      <c r="L19" s="0">
+        <v>0.75219999999999998</v>
       </c>
       <c r="M19" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N19" s="0">
-        <v>1.3322000000000001</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="O19" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P19" s="0">
-        <v>1.4350000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="Q19" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R19" s="0">
-        <v>1.3371</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="S19" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T19" s="0">
-        <v>1.3349</v>
+        <v>0.9093</v>
       </c>
       <c r="U19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V19" s="0">
-        <v>1.2307999999999999</v>
+        <v>0.90439999999999998</v>
       </c>
       <c r="W19" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X19" s="0">
-        <v>1.4027000000000001</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="Y19" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="0">
-        <v>1.3179000000000001</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="AA19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="0">
-        <v>1.2298</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="AC19" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD19" s="0">
-        <v>1.3187</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="AE19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="0">
-        <v>1.2243999999999999</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="AG19" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="0">
-        <v>1.2169000000000001</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="AI19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1.1577999999999999</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="AK19" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="0">
-        <v>1.1939</v>
+        <v>0.7591</v>
       </c>
       <c r="AM19" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN19" s="0">
-        <v>1.3286</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="AO19" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="0">
-        <v>0.3826</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0">
-        <v>0.1971</v>
+        <v>0.1094</v>
       </c>
       <c r="C20" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D20" s="0">
-        <v>0.52159999999999995</v>
+        <v>0.25969999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="0">
-        <v>0.40029999999999999</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="G20" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H20" s="0">
-        <v>0.29909999999999998</v>
+        <v>0.87050000000000005</v>
       </c>
       <c r="I20" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J20" s="0">
-        <v>0.64759999999999995</v>
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="K20" s="0">
+        <v>4</v>
+      </c>
+      <c r="L20" s="0">
+        <v>0.81850000000000001</v>
       </c>
       <c r="M20" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N20" s="0">
-        <v>1.3769</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="O20" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P20" s="0">
-        <v>1.5001</v>
+        <v>1.0412999999999999</v>
       </c>
       <c r="Q20" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R20" s="0">
-        <v>1.4212</v>
+        <v>1.0526</v>
       </c>
       <c r="S20" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T20" s="0">
-        <v>1.4129</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="U20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V20" s="0">
-        <v>1.3307</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="W20" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X20" s="0">
-        <v>1.4842</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="Y20" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="0">
-        <v>1.4083000000000001</v>
+        <v>1.0639000000000001</v>
       </c>
       <c r="AA20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="0">
-        <v>1.3187</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="AC20" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD20" s="0">
-        <v>1.4003000000000001</v>
+        <v>0.8921</v>
       </c>
       <c r="AE20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF20" s="0">
-        <v>1.3109999999999999</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="AG20" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH20" s="0">
-        <v>1.3047</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="AI20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1.2454000000000001</v>
+        <v>0.95909999999999995</v>
       </c>
       <c r="AK20" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL20" s="0">
-        <v>1.2834000000000001</v>
+        <v>0.85519999999999996</v>
       </c>
       <c r="AM20" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN20" s="0">
-        <v>1.3787</v>
+        <v>0.92979999999999996</v>
       </c>
       <c r="AO20" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AP20" s="0">
-        <v>0.4325</v>
+        <v>0.22090000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0">
-        <v>0.25130000000000002</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0">
-        <v>0.57040000000000002</v>
+        <v>0.32669999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0">
-        <v>0.4536</v>
+        <v>0.5655</v>
       </c>
       <c r="G21" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H21" s="0">
-        <v>0.33260000000000001</v>
+        <v>0.93310000000000004</v>
       </c>
       <c r="I21" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J21" s="0">
-        <v>0.69640000000000002</v>
+        <v>1.0203</v>
+      </c>
+      <c r="K21" s="0">
+        <v>5</v>
+      </c>
+      <c r="L21" s="0">
+        <v>0.88219999999999999</v>
       </c>
       <c r="M21" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N21" s="0">
-        <v>1.3053999999999999</v>
+        <v>1.0141</v>
       </c>
       <c r="O21" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P21" s="0">
-        <v>1.1234999999999999</v>
+        <v>1.1154</v>
       </c>
       <c r="Q21" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R21" s="0">
-        <v>1.5132000000000001</v>
+        <v>1.1295</v>
       </c>
       <c r="S21" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T21" s="0">
-        <v>1.5034000000000001</v>
+        <v>1.0576000000000001</v>
       </c>
       <c r="U21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V21" s="0">
-        <v>1.4067000000000001</v>
+        <v>1.0603</v>
       </c>
       <c r="W21" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X21" s="0">
-        <v>1.5282</v>
+        <v>1.0618000000000001</v>
       </c>
       <c r="Y21" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="0">
-        <v>1.4739</v>
+        <v>1.1466000000000001</v>
       </c>
       <c r="AA21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="0">
-        <v>1.4006000000000001</v>
+        <v>1.0663</v>
       </c>
       <c r="AC21" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="0">
-        <v>1.4537</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="AE21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF21" s="0">
-        <v>1.3931</v>
+        <v>1.0618000000000001</v>
       </c>
       <c r="AG21" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="0">
-        <v>1.3874</v>
+        <v>0.96730000000000005</v>
       </c>
       <c r="AI21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ21" s="0">
-        <v>1.3731</v>
+        <v>1.0509</v>
       </c>
       <c r="AK21" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="0">
-        <v>1.3608</v>
+        <v>0.94899999999999996</v>
       </c>
       <c r="AM21" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AN21" s="0">
-        <v>1.3938999999999999</v>
+        <v>1.0245</v>
       </c>
       <c r="AO21" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.48049999999999998</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="0">
-        <v>0.31030000000000002</v>
+        <v>0.1799</v>
       </c>
       <c r="C22" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0">
-        <v>0.61850000000000005</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="E22" s="0">
         <v>12</v>
       </c>
       <c r="F22" s="0">
-        <v>0.54530000000000001</v>
+        <v>0.5615</v>
       </c>
       <c r="G22" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="0">
-        <v>0.36520000000000002</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="I22" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J22" s="0">
-        <v>0.74590000000000001</v>
+        <v>1.1077999999999999</v>
+      </c>
+      <c r="K22" s="0">
+        <v>6</v>
+      </c>
+      <c r="L22" s="0">
+        <v>0.95140000000000002</v>
       </c>
       <c r="M22" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N22" s="0">
-        <v>0.69769999999999999</v>
+        <v>1.0837000000000001</v>
       </c>
       <c r="O22" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P22" s="0">
-        <v>1.2151000000000001</v>
+        <v>1.194</v>
       </c>
       <c r="Q22" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R22" s="0">
-        <v>1.5629</v>
+        <v>1.2094</v>
       </c>
       <c r="S22" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T22" s="0">
-        <v>1.5475000000000001</v>
+        <v>1.1369</v>
       </c>
       <c r="U22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V22" s="0">
-        <v>1.4817</v>
+        <v>1.1411</v>
       </c>
       <c r="W22" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X22" s="0">
-        <v>1.5442</v>
+        <v>1.1436</v>
       </c>
       <c r="Y22" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z22" s="0">
-        <v>1.5107999999999999</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="AA22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="0">
-        <v>1.4616</v>
+        <v>1.1489</v>
       </c>
       <c r="AC22" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.4789000000000001</v>
+        <v>1.0652999999999999</v>
       </c>
       <c r="AE22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF22" s="0">
-        <v>1.4467000000000001</v>
+        <v>1.1477999999999999</v>
       </c>
       <c r="AG22" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH22" s="0">
-        <v>1.4422999999999999</v>
+        <v>1.0571999999999999</v>
       </c>
       <c r="AI22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1.4296</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="AK22" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AL22" s="0">
-        <v>1.4071</v>
+        <v>1.0421</v>
       </c>
       <c r="AM22" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AN22" s="0">
-        <v>1.0013000000000001</v>
+        <v>1.1151</v>
       </c>
       <c r="AO22" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.52680000000000005</v>
+        <v>0.33090000000000003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="0">
-        <v>0.36880000000000002</v>
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="C23" s="0">
+        <v>9</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.37680000000000002</v>
       </c>
       <c r="E23" s="0">
         <v>13</v>
       </c>
       <c r="F23" s="0">
-        <v>0.58340000000000003</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="G23" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H23" s="0">
-        <v>0.39679999999999999</v>
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="I23" s="0">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0">
+        <v>1.1394</v>
+      </c>
+      <c r="K23" s="0">
+        <v>7</v>
+      </c>
+      <c r="L23" s="0">
+        <v>1.0155000000000001</v>
       </c>
       <c r="M23" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N23" s="0">
-        <v>0.71960000000000002</v>
+        <v>1.1583000000000001</v>
       </c>
       <c r="O23" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P23" s="0">
-        <v>1.3357000000000001</v>
+        <v>1.2724</v>
       </c>
       <c r="Q23" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R23" s="0">
-        <v>1.5945</v>
+        <v>1.2881</v>
       </c>
       <c r="S23" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T23" s="0">
-        <v>1.6065</v>
+        <v>1.2178</v>
       </c>
       <c r="U23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V23" s="0">
-        <v>1.5485</v>
+        <v>1.2218</v>
       </c>
       <c r="W23" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X23" s="0">
-        <v>1.532</v>
+        <v>1.2241</v>
       </c>
       <c r="Y23" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z23" s="0">
-        <v>1.5235000000000001</v>
+        <v>1.2927</v>
       </c>
       <c r="AA23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AB23" s="0">
-        <v>1.4946999999999999</v>
+        <v>1.2245999999999999</v>
       </c>
       <c r="AC23" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD23" s="0">
-        <v>1.4709000000000001</v>
+        <v>1.1494</v>
       </c>
       <c r="AE23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.4646999999999999</v>
+        <v>1.2188000000000001</v>
       </c>
       <c r="AG23" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH23" s="0">
-        <v>1.4459</v>
+        <v>1.1440999999999999</v>
       </c>
       <c r="AI23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ23" s="0">
-        <v>1.4334</v>
+        <v>1.2107000000000001</v>
       </c>
       <c r="AK23" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL23" s="0">
-        <v>1.4236</v>
+        <v>1.1295</v>
       </c>
       <c r="AM23" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.90920000000000001</v>
+        <v>1.188</v>
       </c>
       <c r="AO23" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP23" s="0">
-        <v>0.57169999999999999</v>
+        <v>0.3826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="0">
-        <v>0.4264</v>
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="C24" s="0">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.4259</v>
       </c>
       <c r="E24" s="0">
         <v>14</v>
       </c>
       <c r="F24" s="0">
-        <v>0.62380000000000002</v>
+        <v>0.63039999999999996</v>
       </c>
       <c r="G24" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="0">
-        <v>0.42720000000000002</v>
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="I24" s="0">
+        <v>11</v>
+      </c>
+      <c r="J24" s="0">
+        <v>1.1237999999999999</v>
+      </c>
+      <c r="K24" s="0">
+        <v>8</v>
+      </c>
+      <c r="L24" s="0">
+        <v>1.0849</v>
       </c>
       <c r="M24" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N24" s="0">
-        <v>0.76419999999999999</v>
+        <v>1.2364</v>
+      </c>
+      <c r="O24" s="0">
+        <v>10</v>
+      </c>
+      <c r="P24" s="0">
+        <v>1.3436999999999999</v>
       </c>
       <c r="Q24" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R24" s="0">
-        <v>1.6351</v>
+        <v>1.3609</v>
       </c>
       <c r="S24" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T24" s="0">
-        <v>1.5984</v>
+        <v>1.2956000000000001</v>
       </c>
       <c r="U24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V24" s="0">
-        <v>1.5625</v>
+        <v>1.2915000000000001</v>
       </c>
       <c r="W24" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X24" s="0">
-        <v>1.5163</v>
+        <v>1.2908999999999999</v>
       </c>
       <c r="Y24" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="0">
-        <v>1.5056</v>
+        <v>1.3555999999999999</v>
       </c>
       <c r="AA24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB24" s="0">
-        <v>1.4934000000000001</v>
+        <v>1.2938000000000001</v>
       </c>
       <c r="AC24" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.4635</v>
+        <v>1.2218</v>
       </c>
       <c r="AE24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF24" s="0">
-        <v>1.4561999999999999</v>
+        <v>1.2885</v>
       </c>
       <c r="AG24" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH24" s="0">
-        <v>1.4443999999999999</v>
+        <v>1.2151000000000001</v>
       </c>
       <c r="AI24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ24" s="0">
-        <v>1.4358</v>
+        <v>1.2758</v>
       </c>
       <c r="AK24" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL24" s="0">
-        <v>1.4300999999999999</v>
+        <v>1.2037</v>
+      </c>
+      <c r="AM24" s="0">
+        <v>9</v>
+      </c>
+      <c r="AN24" s="0">
+        <v>1.2438</v>
       </c>
       <c r="AO24" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP24" s="0">
-        <v>0.61539999999999995</v>
+        <v>0.43219999999999997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0">
-        <v>0.48309999999999997</v>
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="C25" s="0">
+        <v>11</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.44209999999999999</v>
       </c>
       <c r="E25" s="0">
         <v>15</v>
       </c>
       <c r="F25" s="0">
-        <v>0.66569999999999996</v>
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="G25" s="0">
+        <v>14</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="I25" s="0">
+        <v>12</v>
+      </c>
+      <c r="J25" s="0">
+        <v>1.2019</v>
+      </c>
+      <c r="K25" s="0">
+        <v>9</v>
+      </c>
+      <c r="L25" s="0">
+        <v>1.1554</v>
       </c>
       <c r="M25" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N25" s="0">
-        <v>0.83620000000000005</v>
+        <v>1.3062</v>
+      </c>
+      <c r="O25" s="0">
+        <v>11</v>
+      </c>
+      <c r="P25" s="0">
+        <v>1.409</v>
       </c>
       <c r="Q25" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R25" s="0">
-        <v>1.6328</v>
+        <v>1.4100999999999999</v>
       </c>
       <c r="S25" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T25" s="0">
-        <v>1.5854999999999999</v>
+        <v>1.3537999999999999</v>
       </c>
       <c r="U25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V25" s="0">
-        <v>1.5618000000000001</v>
+        <v>1.3547</v>
       </c>
       <c r="W25" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X25" s="0">
-        <v>1.5089999999999999</v>
+        <v>1.3555999999999999</v>
       </c>
       <c r="Y25" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="0">
-        <v>1.4959</v>
+        <v>1.4052</v>
       </c>
       <c r="AA25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB25" s="0">
-        <v>1.4841</v>
+        <v>1.3548</v>
       </c>
       <c r="AC25" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.4630000000000001</v>
+        <v>1.2922</v>
       </c>
       <c r="AE25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF25" s="0">
-        <v>1.4535</v>
+        <v>1.3453999999999999</v>
       </c>
       <c r="AG25" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH25" s="0">
-        <v>1.4467000000000001</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="AI25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1.4422999999999999</v>
+        <v>1.3249</v>
       </c>
       <c r="AK25" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL25" s="0">
-        <v>1.4285000000000001</v>
+        <v>1.2647999999999999</v>
+      </c>
+      <c r="AM25" s="0">
+        <v>10</v>
+      </c>
+      <c r="AN25" s="0">
+        <v>1.2795000000000001</v>
       </c>
       <c r="AO25" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP25" s="0">
-        <v>0.65800000000000003</v>
+        <v>0.47989999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0">
-        <v>0.5383</v>
+        <v>0.3619</v>
+      </c>
+      <c r="C26" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.48309999999999997</v>
+      </c>
+      <c r="E26" s="0">
+        <v>17</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="G26" s="0">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="I26" s="0">
+        <v>15</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.8881</v>
+      </c>
+      <c r="K26" s="0">
+        <v>10</v>
+      </c>
+      <c r="L26" s="0">
+        <v>1.2329000000000001</v>
+      </c>
+      <c r="M26" s="0">
+        <v>11</v>
+      </c>
+      <c r="N26" s="0">
+        <v>1.3678999999999999</v>
+      </c>
+      <c r="O26" s="0">
+        <v>12</v>
+      </c>
+      <c r="P26" s="0">
+        <v>1.4614</v>
       </c>
       <c r="Q26" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R26" s="0">
-        <v>1.6272</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="S26" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T26" s="0">
-        <v>1.5624</v>
+        <v>1.4098</v>
       </c>
       <c r="U26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V26" s="0">
-        <v>1.5414000000000001</v>
+        <v>1.4086000000000001</v>
+      </c>
+      <c r="W26" s="0">
+        <v>11</v>
+      </c>
+      <c r="X26" s="0">
+        <v>1.4078</v>
       </c>
       <c r="Y26" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z26" s="0">
-        <v>1.4953000000000001</v>
+        <v>1.438</v>
       </c>
       <c r="AA26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="0">
-        <v>1.4782</v>
+        <v>1.401</v>
       </c>
       <c r="AC26" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD26" s="0">
-        <v>1.4569000000000001</v>
+        <v>1.3513</v>
       </c>
       <c r="AE26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF26" s="0">
-        <v>1.4563999999999999</v>
+        <v>1.3836</v>
       </c>
       <c r="AG26" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH26" s="0">
-        <v>1.4473</v>
+        <v>1.3359000000000001</v>
       </c>
       <c r="AI26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1.4219999999999999</v>
+        <v>1.3535999999999999</v>
       </c>
       <c r="AK26" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL26" s="0">
-        <v>1.4021999999999999</v>
+        <v>1.3090999999999999</v>
+      </c>
+      <c r="AM26" s="0">
+        <v>11</v>
+      </c>
+      <c r="AN26" s="0">
+        <v>1.2955000000000001</v>
       </c>
       <c r="AO26" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP26" s="0">
-        <v>0.69969999999999999</v>
+        <v>0.52580000000000005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
+        <v>13</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="C27" s="0">
+        <v>13</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="E27" s="0">
+        <v>18</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="G27" s="0">
+        <v>16</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="I27" s="0">
+        <v>17</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="K27" s="0">
+        <v>11</v>
+      </c>
+      <c r="L27" s="0">
+        <v>1.2736000000000001</v>
+      </c>
+      <c r="M27" s="0">
+        <v>12</v>
+      </c>
+      <c r="N27" s="0">
+        <v>1.4414</v>
+      </c>
+      <c r="O27" s="0">
+        <v>13</v>
+      </c>
+      <c r="P27" s="0">
+        <v>1.4847999999999999</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>13</v>
+      </c>
+      <c r="R27" s="0">
+        <v>1.4861</v>
+      </c>
+      <c r="S27" s="0">
+        <v>12</v>
+      </c>
+      <c r="T27" s="0">
+        <v>1.4527000000000001</v>
+      </c>
+      <c r="U27" s="0">
+        <v>12</v>
+      </c>
+      <c r="V27" s="0">
+        <v>1.4493</v>
+      </c>
+      <c r="W27" s="0">
+        <v>12</v>
+      </c>
+      <c r="X27" s="0">
+        <v>1.4444999999999999</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>13</v>
+      </c>
+      <c r="Z27" s="0">
+        <v>1.4387000000000001</v>
+      </c>
+      <c r="AA27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="0">
+        <v>1.4247000000000001</v>
+      </c>
+      <c r="AC27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>1.3933</v>
+      </c>
+      <c r="AE27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="0">
+        <v>1.3946000000000001</v>
+      </c>
+      <c r="AG27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AH27" s="0">
+        <v>1.3711</v>
+      </c>
+      <c r="AI27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="0">
+        <v>1.3561000000000001</v>
+      </c>
+      <c r="AK27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AL27" s="0">
+        <v>1.3327</v>
+      </c>
+      <c r="AM27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="0">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="AO27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AP27" s="0">
+        <v>0.57040000000000002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>14</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.44629999999999998</v>
+      </c>
+      <c r="C28" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.5484</v>
+      </c>
+      <c r="G28" s="0">
+        <v>17</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="I28" s="0">
+        <v>18</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K28" s="0">
+        <v>12</v>
+      </c>
+      <c r="L28" s="0">
+        <v>1.2928</v>
+      </c>
+      <c r="M28" s="0">
+        <v>13</v>
+      </c>
+      <c r="N28" s="0">
+        <v>1.4571000000000001</v>
+      </c>
+      <c r="O28" s="0">
+        <v>14</v>
+      </c>
+      <c r="P28" s="0">
+        <v>1.5034000000000001</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>14</v>
+      </c>
+      <c r="R28" s="0">
+        <v>1.5039</v>
+      </c>
+      <c r="S28" s="0">
+        <v>13</v>
+      </c>
+      <c r="T28" s="0">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="U28" s="0">
+        <v>13</v>
+      </c>
+      <c r="V28" s="0">
+        <v>1.4703999999999999</v>
+      </c>
+      <c r="W28" s="0">
+        <v>13</v>
+      </c>
+      <c r="X28" s="0">
+        <v>1.4575</v>
+      </c>
+      <c r="Y28" s="0">
+        <v>14</v>
+      </c>
+      <c r="Z28" s="0">
+        <v>1.4216</v>
+      </c>
+      <c r="AA28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AB28" s="0">
+        <v>1.4177</v>
+      </c>
+      <c r="AC28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>1.4098999999999999</v>
+      </c>
+      <c r="AE28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AF28" s="0">
+        <v>1.3836</v>
+      </c>
+      <c r="AG28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="0">
+        <v>1.3764000000000001</v>
+      </c>
+      <c r="AI28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AJ28" s="0">
+        <v>1.3452</v>
+      </c>
+      <c r="AK28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AL28" s="0">
+        <v>1.3347</v>
+      </c>
+      <c r="AM28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AN28" s="0">
+        <v>1.2870999999999999</v>
+      </c>
+      <c r="AO28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AP28" s="0">
+        <v>0.61380000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
         <v>15</v>
       </c>
-      <c r="B27" s="0">
-        <v>0.59219999999999995</v>
-      </c>
-      <c r="U27" s="0">
+      <c r="B29" s="0">
+        <v>0.499</v>
+      </c>
+      <c r="C29" s="0">
         <v>15</v>
       </c>
-      <c r="V27" s="0">
-        <v>1.5246</v>
-      </c>
-      <c r="AA27" s="0">
+      <c r="D29" s="0">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="G29" s="0">
+        <v>18</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="K29" s="0">
+        <v>13</v>
+      </c>
+      <c r="L29" s="0">
+        <v>1.3334999999999999</v>
+      </c>
+      <c r="M29" s="0">
+        <v>14</v>
+      </c>
+      <c r="N29" s="0">
+        <v>1.4512</v>
+      </c>
+      <c r="O29" s="0">
         <v>15</v>
       </c>
-      <c r="AB27" s="0">
-        <v>1.4784999999999999</v>
-      </c>
-      <c r="AE27" s="0">
+      <c r="P29" s="0">
+        <v>1.4994000000000001</v>
+      </c>
+      <c r="Q29" s="0">
         <v>15</v>
       </c>
-      <c r="AF27" s="0">
-        <v>1.4407000000000001</v>
-      </c>
-      <c r="AG27" s="0">
+      <c r="R29" s="0">
+        <v>1.4988999999999999</v>
+      </c>
+      <c r="S29" s="0">
+        <v>14</v>
+      </c>
+      <c r="T29" s="0">
+        <v>1.4894000000000001</v>
+      </c>
+      <c r="U29" s="0">
+        <v>14</v>
+      </c>
+      <c r="V29" s="0">
+        <v>1.4636</v>
+      </c>
+      <c r="W29" s="0">
+        <v>14</v>
+      </c>
+      <c r="X29" s="0">
+        <v>1.4415</v>
+      </c>
+      <c r="Y29" s="0">
         <v>15</v>
       </c>
-      <c r="AH27" s="0">
-        <v>1.4176</v>
-      </c>
-      <c r="AI27" s="0">
+      <c r="Z29" s="0">
+        <v>1.3983000000000001</v>
+      </c>
+      <c r="AA29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AB29" s="0">
+        <v>1.401</v>
+      </c>
+      <c r="AC29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AD29" s="0">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="AE29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="0">
+        <v>1.3705000000000001</v>
+      </c>
+      <c r="AG29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AH29" s="0">
+        <v>1.3674</v>
+      </c>
+      <c r="AI29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AJ29" s="0">
+        <v>1.3288</v>
+      </c>
+      <c r="AK29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AL29" s="0">
+        <v>1.3207</v>
+      </c>
+      <c r="AM29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AN29" s="0">
+        <v>1.2573000000000001</v>
+      </c>
+      <c r="AO29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AP29" s="0">
+        <v>0.65610000000000002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>16</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="C30" s="0">
+        <v>16</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="K30" s="0">
+        <v>14</v>
+      </c>
+      <c r="L30" s="0">
+        <v>1.2043999999999999</v>
+      </c>
+      <c r="M30" s="0">
         <v>15</v>
       </c>
-      <c r="AJ27" s="0">
-        <v>1.3873</v>
-      </c>
-      <c r="AK27" s="0">
+      <c r="N30" s="0">
+        <v>1.3938999999999999</v>
+      </c>
+      <c r="O30" s="0">
+        <v>16</v>
+      </c>
+      <c r="P30" s="0">
+        <v>1.4642</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>16</v>
+      </c>
+      <c r="R30" s="0">
+        <v>1.4743</v>
+      </c>
+      <c r="S30" s="0">
         <v>15</v>
       </c>
-      <c r="AL27" s="0">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="AO27" s="0">
+      <c r="T30" s="0">
+        <v>1.4704999999999999</v>
+      </c>
+      <c r="U30" s="0">
         <v>15</v>
       </c>
-      <c r="AP27" s="0">
-        <v>0.74060000000000004</v>
+      <c r="V30" s="0">
+        <v>1.4363999999999999</v>
+      </c>
+      <c r="W30" s="0">
+        <v>15</v>
+      </c>
+      <c r="X30" s="0">
+        <v>1.4168000000000001</v>
+      </c>
+      <c r="Y30" s="0">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="0">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="AA30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AB30" s="0">
+        <v>1.3769</v>
+      </c>
+      <c r="AC30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AD30" s="0">
+        <v>1.3855</v>
+      </c>
+      <c r="AE30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AF30" s="0">
+        <v>1.3501000000000001</v>
+      </c>
+      <c r="AG30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AH30" s="0">
+        <v>1.3503000000000001</v>
+      </c>
+      <c r="AI30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AJ30" s="0">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="AK30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AL30" s="0">
+        <v>1.2996000000000001</v>
+      </c>
+      <c r="AM30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AN30" s="0">
+        <v>1.2157</v>
+      </c>
+      <c r="AO30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AP30" s="0">
+        <v>0.69740000000000002</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>17</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="C31" s="0">
+        <v>17</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="K31" s="0">
+        <v>16</v>
+      </c>
+      <c r="L31" s="0">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="M31" s="0">
+        <v>16</v>
+      </c>
+      <c r="N31" s="0">
+        <v>1.1617</v>
+      </c>
+      <c r="O31" s="0">
+        <v>17</v>
+      </c>
+      <c r="P31" s="0">
+        <v>1.4025000000000001</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>17</v>
+      </c>
+      <c r="R31" s="0">
+        <v>1.4287000000000001</v>
+      </c>
+      <c r="S31" s="0">
+        <v>16</v>
+      </c>
+      <c r="T31" s="0">
+        <v>1.4340999999999999</v>
+      </c>
+      <c r="U31" s="0">
+        <v>16</v>
+      </c>
+      <c r="V31" s="0">
+        <v>1.4083000000000001</v>
+      </c>
+      <c r="W31" s="0">
+        <v>16</v>
+      </c>
+      <c r="X31" s="0">
+        <v>1.3929</v>
+      </c>
+      <c r="Y31" s="0">
+        <v>17</v>
+      </c>
+      <c r="Z31" s="0">
+        <v>1.3515999999999999</v>
+      </c>
+      <c r="AA31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AB31" s="0">
+        <v>1.3524</v>
+      </c>
+      <c r="AC31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>1.3638999999999999</v>
+      </c>
+      <c r="AE31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AF31" s="0">
+        <v>1.3219000000000001</v>
+      </c>
+      <c r="AG31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="0">
+        <v>1.3278000000000001</v>
+      </c>
+      <c r="AI31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AJ31" s="0">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="AK31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AL31" s="0">
+        <v>1.2655000000000001</v>
+      </c>
+      <c r="AM31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AN31" s="0">
+        <v>1.1735</v>
+      </c>
+      <c r="AO31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AP31" s="0">
+        <v>0.7379</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>18</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.61370000000000002</v>
+      </c>
+      <c r="C32" s="0">
+        <v>18</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.7127</v>
+      </c>
+      <c r="K32" s="0">
+        <v>17</v>
+      </c>
+      <c r="L32" s="0">
+        <v>1.0126</v>
+      </c>
+      <c r="O32" s="0">
+        <v>18</v>
+      </c>
+      <c r="P32" s="0">
+        <v>1.3354999999999999</v>
+      </c>
+      <c r="Q32" s="0">
+        <v>18</v>
+      </c>
+      <c r="R32" s="0">
+        <v>1.3880999999999999</v>
+      </c>
+      <c r="S32" s="0">
+        <v>17</v>
+      </c>
+      <c r="T32" s="0">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="U32" s="0">
+        <v>17</v>
+      </c>
+      <c r="V32" s="0">
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="W32" s="0">
+        <v>17</v>
+      </c>
+      <c r="X32" s="0">
+        <v>1.3675999999999999</v>
+      </c>
+      <c r="Y32" s="0">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="0">
+        <v>1.3299000000000001</v>
+      </c>
+      <c r="AA32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AB32" s="0">
+        <v>1.329</v>
+      </c>
+      <c r="AC32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AD32" s="0">
+        <v>1.3398000000000001</v>
+      </c>
+      <c r="AE32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AF32" s="0">
+        <v>1.2877000000000001</v>
+      </c>
+      <c r="AG32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AH32" s="0">
+        <v>1.298</v>
+      </c>
+      <c r="AI32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AJ32" s="0">
+        <v>1.2243999999999999</v>
+      </c>
+      <c r="AK32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="0">
+        <v>1.2244999999999999</v>
+      </c>
+      <c r="AM32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AN32" s="0">
+        <v>1.113</v>
+      </c>
+      <c r="AO32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AP32" s="0">
+        <v>0.77780000000000005</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="K33" s="0">
+        <v>18</v>
+      </c>
+      <c r="L33" s="0">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="S33" s="0">
+        <v>18</v>
+      </c>
+      <c r="T33" s="0">
+        <v>1.3736999999999999</v>
+      </c>
+      <c r="U33" s="0">
+        <v>18</v>
+      </c>
+      <c r="V33" s="0">
+        <v>1.3607</v>
+      </c>
+      <c r="W33" s="0">
+        <v>18</v>
+      </c>
+      <c r="X33" s="0">
+        <v>1.3473999999999999</v>
+      </c>
+      <c r="AA33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AB33" s="0">
+        <v>1.3041</v>
+      </c>
+      <c r="AC33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AD33" s="0">
+        <v>1.3107</v>
+      </c>
+      <c r="AE33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AF33" s="0">
+        <v>1.2525999999999999</v>
+      </c>
+      <c r="AG33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AH33" s="0">
+        <v>1.2584</v>
+      </c>
+      <c r="AI33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AJ33" s="0">
+        <v>1.1872</v>
+      </c>
+      <c r="AK33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AL33" s="0">
+        <v>1.1861999999999999</v>
+      </c>
+      <c r="AM33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AN33" s="0">
+        <v>1.0728</v>
+      </c>
+      <c r="AO33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AP33" s="0">
+        <v>0.81710000000000005</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AC34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AD34" s="0">
+        <v>1.2793000000000001</v>
+      </c>
+      <c r="AG34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AH34" s="0">
+        <v>1.2217</v>
+      </c>
+      <c r="AK34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AL34" s="0">
+        <v>1.1505000000000001</v>
+      </c>
+      <c r="AO34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AP34" s="0">
+        <v>0.85599999999999998</v>
       </c>
     </row>
   </sheetData>
